--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD60BCB-2149-49E2-BDB3-11BBF6F1A36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E5D428-5E67-4A4A-B7C6-1C4D2951BC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -271,7 +271,79 @@
     <t>Pruebas</t>
   </si>
   <si>
-    <t>S4HANA SUBURBIA</t>
+    <t>DIP2-FI-1</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>Contrasena</t>
+  </si>
+  <si>
+    <t>Productivo2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4HANA SUBURBIA SBP </t>
+  </si>
+  <si>
+    <t>KeyPath</t>
+  </si>
+  <si>
+    <t>C:\Users\Beecker\Documents\Liverpool\Coneccion Google\uipath-test-256814-4eff096b6385_Proveedor.json</t>
+  </si>
+  <si>
+    <t>IDAccount</t>
+  </si>
+  <si>
+    <t>notasecret</t>
+  </si>
+  <si>
+    <t>uipathproveedor@uipath-test-256814.iam.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>NombreArchivo</t>
+  </si>
+  <si>
+    <t>Carta Porte</t>
+  </si>
+  <si>
+    <t>IdCarpetaPadre</t>
+  </si>
+  <si>
+    <t>1GboE8jWrN6EmQCZl6VlMmwdrqe_4k9kJ</t>
+  </si>
+  <si>
+    <t>RutaDescargaTemporal</t>
+  </si>
+  <si>
+    <t>Data\Temporal\Carta Porte</t>
+  </si>
+  <si>
+    <t>RutaProveedoresXLSX</t>
+  </si>
+  <si>
+    <t>RutaProveedoresCSV</t>
+  </si>
+  <si>
+    <t>C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\Proveedores\Proveedores.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\Proveedores\Proveedores.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\Log\</t>
+  </si>
+  <si>
+    <t>RutaLog</t>
+  </si>
+  <si>
+    <t>C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\Extras\Plantilla Log.xlsx</t>
+  </si>
+  <si>
+    <t>PlantillaLogRuta</t>
   </si>
 </sst>
 </file>
@@ -374,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -405,6 +477,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="49.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -802,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -900,8 +973,12 @@
       <c r="Z5"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -928,8 +1005,12 @@
       <c r="Z6"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -956,7 +1037,6 @@
       <c r="Z7"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8"/>
       <c r="B8" s="6"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -2882,14 +2962,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" style="8" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" style="8" customWidth="1"/>
     <col min="27" max="27" width="14.44140625" style="8" customWidth="1"/>
@@ -3139,14 +3219,86 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="33" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94f2d34ded19b0dc/Documentos/UiPath/LIV-CP/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E5D428-5E67-4A4A-B7C6-1C4D2951BC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6BFBD0D3-B781-4625-8C15-6C2440F28804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00E7E92F-7170-46FA-90E5-E16D832E7457}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -289,9 +289,6 @@
     <t>KeyPath</t>
   </si>
   <si>
-    <t>C:\Users\Beecker\Documents\Liverpool\Coneccion Google\uipath-test-256814-4eff096b6385_Proveedor.json</t>
-  </si>
-  <si>
     <t>IDAccount</t>
   </si>
   <si>
@@ -328,22 +325,25 @@
     <t>RutaProveedoresCSV</t>
   </si>
   <si>
-    <t>C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\Proveedores\Proveedores.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\Proveedores\Proveedores.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\Log\</t>
-  </si>
-  <si>
     <t>RutaLog</t>
   </si>
   <si>
-    <t>C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\Extras\Plantilla Log.xlsx</t>
-  </si>
-  <si>
     <t>PlantillaLogRuta</t>
+  </si>
+  <si>
+    <t>C:\Users\luzpc\OneDrive\Documentos\UiPath\LIV-CP\Data\Proveedores\Proveedores.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\luzpc\OneDrive\Documentos\UiPath\LIV-CP\Data\Proveedores\Proveedores.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\luzpc\OneDrive\Documentos\UiPath\LIV-CP\Data\Log\</t>
+  </si>
+  <si>
+    <t>C:\Users\luzpc\OneDrive\Documentos\UiPath\LIV-CP\Data\Extras\Plantilla Log.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\luzpc\OneDrive\Documents\Liverpool\Coneccion Google\uipath-test-256814-4eff096b6385_Proveedor.json</t>
   </si>
 </sst>
 </file>
@@ -2962,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3224,52 +3224,52 @@
         <v>84</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>99</v>
@@ -3277,23 +3277,23 @@
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>102</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94f2d34ded19b0dc/Documentos/UiPath/LIV-CP/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6BFBD0D3-B781-4625-8C15-6C2440F28804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00E7E92F-7170-46FA-90E5-E16D832E7457}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6BFBD0D3-B781-4625-8C15-6C2440F28804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B850BE-048F-43E9-A39D-87D9A79EA8BA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -91,9 +91,6 @@
     <t>botMail</t>
   </si>
   <si>
-    <t>antonio.roman@kirjner.edu.mx</t>
-  </si>
-  <si>
     <t>Mail attached to outlook in case of SendMails=True</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>notificationMail</t>
   </si>
   <si>
-    <t>antonio.roman@beeckerco.com</t>
-  </si>
-  <si>
     <t>Mail who's going to recive when SendMails=True</t>
   </si>
   <si>
@@ -343,7 +337,10 @@
     <t>C:\Users\luzpc\OneDrive\Documentos\UiPath\LIV-CP\Data\Extras\Plantilla Log.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\luzpc\OneDrive\Documents\Liverpool\Coneccion Google\uipath-test-256814-4eff096b6385_Proveedor.json</t>
+    <t>C:\Users\luzpc\OneDrive\Documentos\Liverpool\Coneccion Google\uipath-test-256814-4eff096b6385_Proveedor.json</t>
+  </si>
+  <si>
+    <t>luz.paredes@beeckerco.com</t>
   </si>
 </sst>
 </file>
@@ -388,18 +385,17 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -443,14 +439,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -471,15 +468,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -875,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -973,11 +971,11 @@
       <c r="Z5"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>80</v>
+      <c r="A6" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -1005,11 +1003,11 @@
       <c r="Z6"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>81</v>
+      <c r="A7" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -2962,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3036,11 +3034,11 @@
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
@@ -3048,255 +3046,255 @@
         <v>16</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="10">
         <v>587</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="10">
         <v>3</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
@@ -4304,13 +4302,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -5365,13 +5363,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -5398,44 +5396,44 @@
     </row>
     <row r="2" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:26" customFormat="1" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94f2d34ded19b0dc/Documentos/UiPath/LIV-CP/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6BFBD0D3-B781-4625-8C15-6C2440F28804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B850BE-048F-43E9-A39D-87D9A79EA8BA}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{6BFBD0D3-B781-4625-8C15-6C2440F28804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1E58E5-4AA5-497F-907A-F4FBC3AF23BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -136,9 +136,6 @@
     <t>botName</t>
   </si>
   <si>
-    <t>RPA00NN</t>
-  </si>
-  <si>
     <t>Bot Code</t>
   </si>
   <si>
@@ -341,6 +338,18 @@
   </si>
   <si>
     <t>luz.paredes@beeckerco.com</t>
+  </si>
+  <si>
+    <t>IdCarpetaPadreLog</t>
+  </si>
+  <si>
+    <t>0AK4Qtd4UH0KaUk9PVA</t>
+  </si>
+  <si>
+    <t>notifiacionErrorProceso</t>
+  </si>
+  <si>
+    <t>106_CARTAPORTESBB_SBB_FS_CO</t>
   </si>
 </sst>
 </file>
@@ -873,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -972,10 +981,10 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -1004,10 +1013,10 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -2958,10 +2967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3035,7 +3044,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>19</v>
@@ -3101,144 +3110,145 @@
         <v>33</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>37</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" s="10">
-        <v>3</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>88</v>
+      <c r="B23" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
@@ -3246,63 +3256,77 @@
         <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="33" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C34" s="12"/>
+    </row>
     <row r="35" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="36" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="37" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
@@ -4267,14 +4291,16 @@
     <row r="996" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="997" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="998" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="999" s="1" customFormat="1" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{3288D62D-C95C-4E38-B609-27DF572444FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4302,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -5363,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -5396,44 +5422,44 @@
     </row>
     <row r="2" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:26" customFormat="1" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94f2d34ded19b0dc/Documentos/UiPath/LIV-CP/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luzpc\OneDrive\Documentos\UiPath\LIV-CP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{6BFBD0D3-B781-4625-8C15-6C2440F28804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1E58E5-4AA5-497F-907A-F4FBC3AF23BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Plain_Assets" sheetId="3" r:id="rId3"/>
     <sheet name="Credential_Assets" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -350,12 +349,18 @@
   </si>
   <si>
     <t>106_CARTAPORTESBB_SBB_FS_CO</t>
+  </si>
+  <si>
+    <t>LogGeneral</t>
+  </si>
+  <si>
+    <t>C:\Users\luzpc\OneDrive\Documentos\UiPath\LIV-CP\Data\Log\Log_General.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -486,7 +491,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -798,19 +803,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1038"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="49.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="49.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" style="1" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" style="1" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2966,21 +2971,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" style="8" customWidth="1"/>
-    <col min="2" max="2" width="92.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" style="8" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="14.44140625" style="8"/>
+    <col min="2" max="2" width="92.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" style="8" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="8" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
@@ -3323,24 +3328,31 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="34" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="36" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="37" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="38" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="39" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="40" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="41" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="42" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="43" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="44" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="45" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="46" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="47" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="48" spans="3:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="49" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="50" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="51" s="1" customFormat="1" ht="14.25" customHeight="1"/>
@@ -4295,9 +4307,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{3288D62D-C95C-4E38-B609-27DF572444FA}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4305,22 +4317,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="65.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="14.44140625" style="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="65.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
@@ -5366,22 +5378,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="65.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="14.44140625" style="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="65.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
